--- a/xlsx/越南语_intext.xlsx
+++ b/xlsx/越南语_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="424">
   <si>
     <t>越南语</t>
   </si>
@@ -29,7 +29,7 @@
     <t>Unihan</t>
   </si>
   <si>
-    <t>政策_政策_美國_越南语</t>
+    <t>政策_政策_美国_越南语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E6%97%8F</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E8%AA%9E</t>
   </si>
   <si>
-    <t>京語</t>
+    <t>京语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
+    <t>澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E4%BA%9E</t>
   </si>
   <si>
-    <t>東南亞</t>
+    <t>东南亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80%E7%B3%BB%E5%B1%9E%E5%88%86%E7%B1%BB</t>
@@ -125,19 +125,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9E%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>南亞語系</t>
+    <t>南亚语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F-%E9%AB%98%E6%A3%89%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>孟-高棉語族</t>
+    <t>孟-高棉语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>官方語言列表</t>
+    <t>官方语言列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
@@ -167,9 +167,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>越南語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%83%E5%AD%97</t>
   </si>
   <si>
@@ -197,7 +194,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>國家語言</t>
+    <t>国家语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E4%BA%BA</t>
@@ -209,37 +206,34 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E8%AA%9E</t>
   </si>
   <si>
-    <t>母語</t>
+    <t>母语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%83%91</t>
   </si>
   <si>
-    <t>越僑</t>
+    <t>越侨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E8%A5%BF</t>
   </si>
   <si>
-    <t>廣西</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>漢字</t>
+    <t>汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%96%83%E6%96%87</t>
   </si>
   <si>
-    <t>漢喃文</t>
+    <t>汉喃文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E5%AD%97%E6%AF%8D</t>
@@ -269,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B2%E8%AA%BF</t>
   </si>
   <si>
-    <t>聲調</t>
+    <t>声调</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A4%E7%AB%8B%E8%AF%AD</t>
@@ -281,31 +275,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A3%AF%E4%BE%97%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>壯侗語系</t>
+    <t>壮侗语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E8%AA%9E</t>
   </si>
   <si>
-    <t>泰語</t>
+    <t>泰语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%B3%B6%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>南島語系</t>
+    <t>南岛语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E8%BC%9D%E8%A9%B1</t>
   </si>
   <si>
-    <t>回輝話</t>
+    <t>回辉话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%B2%B3</t>
   </si>
   <si>
-    <t>紅河</t>
+    <t>红河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A0%E5%9F%8E</t>
@@ -329,43 +323,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>漢語</t>
+    <t>汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%B6%8A%E8%AA%9E</t>
   </si>
   <si>
-    <t>漢越語</t>
+    <t>汉越语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E9%9F%BB</t>
   </si>
   <si>
-    <t>切韻</t>
+    <t>切韵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%BC%A2%E8%B6%8A%E8%AA%9E</t>
   </si>
   <si>
-    <t>古漢越語</t>
+    <t>古汉越语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8F%A4%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>中古漢語</t>
+    <t>中古汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%8F%A4%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>上古漢語</t>
+    <t>上古汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BC%AF%E6%A8%82</t>
   </si>
   <si>
-    <t>馬伯樂</t>
+    <t>马伯乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%A4%B7%E8%AF%91%E8%AF%AD</t>
@@ -377,13 +371,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E8%AA%9E%E5%AD%97</t>
   </si>
   <si>
-    <t>國語字</t>
+    <t>国语字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%C2%B7%E7%BE%85%E5%BE%B7</t>
   </si>
   <si>
-    <t>亞歷山大·羅德</t>
+    <t>亚历山大·罗德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%87%E9%9F%B3</t>
@@ -395,13 +389,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BD%92%E9%9F%B3</t>
   </si>
   <si>
-    <t>齒音</t>
+    <t>齿音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BD%92%E9%BD%A6%E9%9F%B3</t>
   </si>
   <si>
-    <t>齒齦音</t>
+    <t>齿龈音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B2%E8%88%8C%E9%9F%B3</t>
@@ -413,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AC%E9%A1%8E%E9%9F%B3</t>
   </si>
   <si>
-    <t>硬顎音</t>
+    <t>硬颚音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8C%E6%A0%B9%E9%9F%B3</t>
@@ -425,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B2%E9%96%80%E9%9F%B3</t>
   </si>
   <si>
-    <t>聲門音</t>
+    <t>声门音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E9%9F%B3</t>
@@ -449,43 +443,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E4%BD%8D%E7%95%B0%E9%9F%B3</t>
   </si>
   <si>
-    <t>同位異音</t>
+    <t>同位异音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%81%E9%9B%99%E5%94%87%E6%93%A6%E9%9F%B3</t>
   </si>
   <si>
-    <t>濁雙唇擦音</t>
+    <t>浊双唇擦音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E7%88%86%E9%9F%B3</t>
   </si>
   <si>
-    <t>內爆音</t>
+    <t>内爆音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BD%A6%E9%A1%8E%E9%9F%B3</t>
   </si>
   <si>
-    <t>齦顎音</t>
+    <t>龈颚音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>葡萄牙語</t>
+    <t>葡萄牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BD%92%E9%96%93%E9%9F%B3</t>
   </si>
   <si>
-    <t>齒間音</t>
+    <t>齿间音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%93%A6%E9%9F%B3</t>
@@ -509,25 +503,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E8%AA%9E</t>
   </si>
   <si>
-    <t>朝鮮語</t>
+    <t>朝鲜语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>日語</t>
+    <t>日语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>漢字文化</t>
+    <t>汉字文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%B6%8A%E9%9F%B3</t>
   </si>
   <si>
-    <t>漢越音</t>
+    <t>汉越音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8F%A4%E9%9F%B3</t>
@@ -539,19 +533,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E6%B3%95</t>
   </si>
   <si>
-    <t>語法</t>
+    <t>语法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%A3%89%E8%AA%9E</t>
   </si>
   <si>
-    <t>高棉語</t>
+    <t>高棉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%BC%A2</t>
   </si>
   <si>
-    <t>東漢</t>
+    <t>东汉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%92%E5%AD%97</t>
@@ -563,19 +557,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E6%9C%9D_(%E8%B6%8A%E5%8D%97)</t>
   </si>
   <si>
-    <t>陳朝 (越南)</t>
+    <t>陈朝 (越南)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%B6%8A%E5%8F%B2%E8%A8%98%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>大越史記全書</t>
+    <t>大越史记全书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%96%87</t>
   </si>
   <si>
-    <t>漢文</t>
+    <t>汉文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%AE%E6%94%B8</t>
@@ -587,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%9B%B2%E7%BF%B9%E5%82%B3</t>
   </si>
   <si>
-    <t>金雲翹傳</t>
+    <t>金云翘传</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E6%9C%9D</t>
@@ -611,19 +605,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E8%A9%9E</t>
   </si>
   <si>
-    <t>單詞</t>
+    <t>单词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%B6%8A%E8%A9%9E</t>
   </si>
   <si>
-    <t>漢越詞</t>
+    <t>汉越词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%88%89</t>
   </si>
   <si>
-    <t>科舉</t>
+    <t>科举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%AE%E6%9C%9D</t>
@@ -635,19 +629,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>越南民主共和國</t>
+    <t>越南民主共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>基督教會</t>
+    <t>基督教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%95%99%E5%A3%AB</t>
   </si>
   <si>
-    <t>傳教士</t>
+    <t>传教士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E6%96%87%E5%AD%97</t>
@@ -659,31 +653,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E</t>
   </si>
   <si>
-    <t>東亞</t>
+    <t>东亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%B6%8A%E5%9C%8B</t>
   </si>
   <si>
-    <t>南越國</t>
+    <t>南越国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%8C%E4%BB%94%E5%86%8A</t>
   </si>
   <si>
-    <t>歌仔冊</t>
+    <t>歌仔册</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E8%AA%9E%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>台語漢字</t>
+    <t>台语汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%A3%E7%82%BA%E6%96%87</t>
   </si>
   <si>
-    <t>蔣為文</t>
+    <t>蒋为文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%AD%A3%E7%8A%9B</t>
@@ -707,43 +701,43 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E9%83%BD%E6%80%9D</t>
   </si>
   <si>
-    <t>麥都思</t>
+    <t>麦都思</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%A9%B1%E5%AD%97</t>
   </si>
   <si>
-    <t>白話字</t>
+    <t>白话字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%98%89%E5%AE%9A%E5%A0%B1</t>
   </si>
   <si>
-    <t>嘉定報</t>
+    <t>嘉定报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%BA%9C%E5%9F%8E%E6%95%99%E6%9C%83%E5%A0%B1</t>
   </si>
   <si>
-    <t>台灣府城教會報</t>
+    <t>台湾府城教会报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E7%BE%A9%E5%A1%BE</t>
   </si>
   <si>
-    <t>東京義塾</t>
+    <t>东京义塾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%96%87%E5%8C%96%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>台灣文化協會</t>
+    <t>台湾文化协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%A9%B1%E6%96%87</t>
   </si>
   <si>
-    <t>白話文</t>
+    <t>白话文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%BF%97%E6%98%8E</t>
@@ -761,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E8%AA%9E</t>
   </si>
   <si>
-    <t>孟語</t>
+    <t>孟语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A4%E6%97%8F</t>
@@ -773,13 +767,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A4%E7%AB%8B%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>孤立語言</t>
+    <t>孤立语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%97%8F%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>漢藏語系</t>
+    <t>汉藏语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E4%B9%A6%E9%A6%86%E5%AD%A6</t>
@@ -803,15 +797,9 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AF%AD</t>
   </si>
   <si>
-    <t>日语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E8%AF%AD</t>
   </si>
   <si>
-    <t>朝鲜语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%A6%E9%9D%A2%E8%AF%AD</t>
   </si>
   <si>
@@ -827,49 +815,49 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%92%E8%AA%9E</t>
   </si>
   <si>
-    <t>芒語</t>
+    <t>芒语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民族主義</t>
+    <t>民族主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>語言學家</t>
+    <t>语言学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E8%AA%9E</t>
   </si>
   <si>
-    <t>柬埔寨語</t>
+    <t>柬埔寨语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AA%9E%E6%96%B9%E8%A8%80</t>
   </si>
   <si>
-    <t>越南語方言</t>
+    <t>越南语方言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AA%9E%E9%9F%B3%E7%B3%BB</t>
   </si>
   <si>
-    <t>越南語音系</t>
+    <t>越南语音系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AA%9E%E8%AA%9E%E6%B3%95</t>
   </si>
   <si>
-    <t>越南語語法</t>
+    <t>越南语语法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8D%E8%A9%9E</t>
   </si>
   <si>
-    <t>名詞</t>
+    <t>名词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7_(%E8%AF%AD%E6%B3%95)</t>
@@ -899,25 +887,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E5%BA%8F</t>
   </si>
   <si>
-    <t>語序</t>
+    <t>语序</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%AA%9E</t>
   </si>
   <si>
-    <t>主語</t>
+    <t>主语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AC%82%E8%AA%9E</t>
   </si>
   <si>
-    <t>謂語</t>
+    <t>谓语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E8%AA%9E</t>
   </si>
   <si>
-    <t>賓語</t>
+    <t>宾语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SVO</t>
@@ -929,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AA%9E%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>越南語字母</t>
+    <t>越南语字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
@@ -947,13 +935,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BD%89%E5%AF%AB</t>
   </si>
   <si>
-    <t>轉寫</t>
+    <t>转写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BC%E9%9F%B3</t>
@@ -1067,13 +1055,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>義大利語</t>
+    <t>义大利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
+    <t>法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
@@ -1085,9 +1073,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AF%AD%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>越南语字母</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/A</t>
   </si>
   <si>
@@ -1241,7 +1226,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
+    <t>维基百科</t>
   </si>
   <si>
     <t>https://vi.wikipedia.org/wiki/</t>
@@ -1259,13 +1244,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -1283,7 +1268,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1295,7 +1280,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2368,7 +2353,7 @@
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>103</v>
@@ -2394,10 +2379,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>38</v>
@@ -2423,10 +2408,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2452,10 +2437,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2481,10 +2466,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2510,10 +2495,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2539,10 +2524,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>7</v>
@@ -2568,10 +2553,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>5</v>
@@ -2597,10 +2582,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>3</v>
@@ -2626,10 +2611,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>16</v>
@@ -2655,10 +2640,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2713,10 +2698,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>47</v>
@@ -2742,10 +2727,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -2771,10 +2756,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>3</v>
@@ -2800,10 +2785,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2829,10 +2814,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>4</v>
@@ -2858,10 +2843,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2887,10 +2872,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>25</v>
@@ -2916,10 +2901,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>4</v>
@@ -2945,10 +2930,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>3</v>
@@ -2974,10 +2959,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>3</v>
@@ -3003,10 +2988,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3032,10 +3017,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3061,10 +3046,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3090,10 +3075,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3119,10 +3104,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3148,10 +3133,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3177,10 +3162,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>16</v>
@@ -3206,10 +3191,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>6</v>
@@ -3235,10 +3220,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3264,10 +3249,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -3293,10 +3278,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -3322,10 +3307,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3351,10 +3336,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -3380,10 +3365,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3409,10 +3394,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>19</v>
@@ -3438,10 +3423,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>6</v>
@@ -3467,10 +3452,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3496,10 +3481,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>5</v>
@@ -3525,10 +3510,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -3554,10 +3539,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>4</v>
@@ -3583,10 +3568,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3612,10 +3597,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3641,10 +3626,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3670,10 +3655,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>6</v>
@@ -3699,10 +3684,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>13</v>
@@ -3728,10 +3713,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3757,10 +3742,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>3</v>
@@ -3786,10 +3771,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3815,10 +3800,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3844,10 +3829,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>4</v>
@@ -3873,10 +3858,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>3</v>
@@ -3902,10 +3887,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>3</v>
@@ -3931,10 +3916,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3960,10 +3945,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3989,10 +3974,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -4018,10 +4003,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F82" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -4047,10 +4032,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4076,10 +4061,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4105,10 +4090,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4134,10 +4119,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4163,10 +4148,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>6</v>
@@ -4192,10 +4177,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4221,10 +4206,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>6</v>
@@ -4250,10 +4235,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>7</v>
@@ -4279,10 +4264,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4308,10 +4293,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>3</v>
@@ -4337,10 +4322,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4366,10 +4351,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4395,10 +4380,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F95" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G95" t="n">
         <v>6</v>
@@ -4424,10 +4409,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>4</v>
@@ -4453,10 +4438,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4482,10 +4467,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4511,10 +4496,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4540,10 +4525,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4569,10 +4554,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>6</v>
@@ -4598,10 +4583,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4627,10 +4612,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -4656,10 +4641,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>5</v>
@@ -4685,10 +4670,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -4714,10 +4699,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4743,10 +4728,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4772,10 +4757,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>13</v>
@@ -4801,10 +4786,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>42</v>
@@ -4830,10 +4815,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -4859,10 +4844,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4888,10 +4873,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4917,10 +4902,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4946,10 +4931,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>11</v>
@@ -4975,10 +4960,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5004,10 +4989,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5033,10 +5018,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5062,10 +5047,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5091,10 +5076,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>3</v>
@@ -5120,10 +5105,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5149,10 +5134,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5178,10 +5163,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>5</v>
@@ -5207,10 +5192,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5236,10 +5221,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5265,10 +5250,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -5294,10 +5279,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5323,10 +5308,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5352,10 +5337,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5381,10 +5366,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5410,10 +5395,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5439,10 +5424,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5468,10 +5453,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5497,10 +5482,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5526,10 +5511,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>164</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5555,10 +5540,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>162</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5584,10 +5569,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5613,10 +5598,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>4</v>
@@ -5642,10 +5627,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>11</v>
@@ -5671,10 +5656,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>7</v>
@@ -5700,10 +5685,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5729,10 +5714,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5758,10 +5743,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5787,10 +5772,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -5816,10 +5801,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5845,10 +5830,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -5874,10 +5859,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5903,10 +5888,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>13</v>
@@ -5932,10 +5917,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>3</v>
@@ -5961,10 +5946,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5990,10 +5975,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>4</v>
@@ -6019,10 +6004,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6048,10 +6033,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6077,10 +6062,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6106,10 +6091,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6135,10 +6120,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G155" t="n">
         <v>4</v>
@@ -6164,10 +6149,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G156" t="n">
         <v>6</v>
@@ -6193,10 +6178,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6222,10 +6207,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6251,10 +6236,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6280,10 +6265,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6309,10 +6294,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G161" t="n">
         <v>20</v>
@@ -6338,10 +6323,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G162" t="n">
         <v>7</v>
@@ -6367,10 +6352,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G163" t="n">
         <v>11</v>
@@ -6396,10 +6381,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -6425,10 +6410,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -6454,10 +6439,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6483,10 +6468,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G167" t="n">
         <v>4</v>
@@ -6512,10 +6497,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -6541,10 +6526,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -6570,10 +6555,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6599,10 +6584,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -6628,10 +6613,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>4</v>
@@ -6657,10 +6642,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -6686,10 +6671,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>5</v>
@@ -6715,10 +6700,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6744,10 +6729,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>3</v>
@@ -6773,10 +6758,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6802,10 +6787,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6831,10 +6816,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>3</v>
@@ -6860,10 +6845,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>7</v>
@@ -6889,10 +6874,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>300</v>
       </c>
       <c r="G181" t="n">
         <v>16</v>
@@ -6918,10 +6903,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G182" t="n">
         <v>36</v>
@@ -6947,10 +6932,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G183" t="n">
         <v>399</v>
@@ -6976,10 +6961,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F184" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G184" t="n">
         <v>5</v>
@@ -7005,10 +6990,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F185" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G185" t="n">
         <v>5</v>
@@ -7034,10 +7019,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F186" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G186" t="n">
         <v>19</v>
@@ -7063,10 +7048,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F187" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G187" t="n">
         <v>67</v>
@@ -7092,10 +7077,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F188" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G188" t="n">
         <v>54</v>
@@ -7121,10 +7106,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F189" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G189" t="n">
         <v>178</v>
@@ -7150,10 +7135,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F190" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G190" t="n">
         <v>23</v>
@@ -7179,10 +7164,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F191" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G191" t="n">
         <v>196</v>
@@ -7208,10 +7193,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F192" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G192" t="n">
         <v>10</v>
@@ -7237,10 +7222,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F193" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G193" t="n">
         <v>25</v>
@@ -7266,10 +7251,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F194" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G194" t="n">
         <v>648</v>
@@ -7295,10 +7280,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F195" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G195" t="n">
         <v>4</v>
@@ -7324,10 +7309,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F196" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G196" t="n">
         <v>5</v>
@@ -7353,10 +7338,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F197" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G197" t="n">
         <v>222</v>
@@ -7382,10 +7367,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F198" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G198" t="n">
         <v>10</v>
@@ -7411,10 +7396,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F199" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G199" t="n">
         <v>131</v>
@@ -7440,10 +7425,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F200" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G200" t="n">
         <v>37</v>
@@ -7469,10 +7454,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F201" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G201" t="n">
         <v>430</v>
@@ -7498,10 +7483,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F202" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G202" t="n">
         <v>6</v>
@@ -7527,10 +7512,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F203" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G203" t="n">
         <v>75</v>
@@ -7556,10 +7541,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F204" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G204" t="n">
         <v>34</v>
@@ -7585,10 +7570,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F205" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G205" t="n">
         <v>262</v>
@@ -7614,10 +7599,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F206" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G206" t="n">
         <v>24</v>
@@ -7643,10 +7628,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F207" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G207" t="n">
         <v>172</v>
@@ -7672,10 +7657,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F208" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G208" t="n">
         <v>44</v>
@@ -7701,10 +7686,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F209" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G209" t="n">
         <v>330</v>
@@ -7730,10 +7715,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F210" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G210" t="n">
         <v>17</v>
@@ -7759,10 +7744,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F211" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G211" t="n">
         <v>278</v>
@@ -7788,10 +7773,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F212" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G212" t="n">
         <v>7</v>
@@ -7817,10 +7802,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F213" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G213" t="n">
         <v>3</v>
@@ -7846,10 +7831,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F214" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G214" t="n">
         <v>41</v>
@@ -7875,10 +7860,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F215" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G215" t="n">
         <v>149</v>
@@ -7904,10 +7889,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F216" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G216" t="n">
         <v>18</v>
@@ -7933,10 +7918,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F217" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G217" t="n">
         <v>7</v>
@@ -7962,10 +7947,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F218" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G218" t="n">
         <v>31</v>
@@ -7991,10 +7976,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F219" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G219" t="n">
         <v>277</v>
@@ -8020,10 +8005,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F220" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G220" t="n">
         <v>37</v>
@@ -8049,10 +8034,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F221" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G221" t="n">
         <v>314</v>
@@ -8078,10 +8063,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F222" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G222" t="n">
         <v>60</v>
@@ -8107,10 +8092,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F223" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G223" t="n">
         <v>457</v>
@@ -8136,10 +8121,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F224" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G224" t="n">
         <v>22</v>
@@ -8165,10 +8150,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F225" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G225" t="n">
         <v>171</v>
@@ -8194,10 +8179,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F226" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -8223,10 +8208,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F227" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G227" t="n">
         <v>40</v>
@@ -8252,10 +8237,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F228" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G228" t="n">
         <v>57</v>
@@ -8281,10 +8266,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F229" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G229" t="n">
         <v>3</v>
@@ -8310,10 +8295,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F230" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G230" t="n">
         <v>65</v>
@@ -8339,10 +8324,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F231" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8368,10 +8353,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F232" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G232" t="n">
         <v>74</v>
@@ -8426,10 +8411,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F234" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8455,10 +8440,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F235" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8484,10 +8469,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F236" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8513,10 +8498,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F237" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8542,10 +8527,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F238" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8571,10 +8556,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F239" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -8600,10 +8585,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F240" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8629,10 +8614,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F241" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G241" t="n">
         <v>3</v>
@@ -8658,10 +8643,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F242" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8687,10 +8672,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F243" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8716,10 +8701,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F244" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8745,10 +8730,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F245" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -8774,10 +8759,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F246" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -8803,10 +8788,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F247" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
